--- a/DataGenerator/XLSXS/CharStatData.xlsx
+++ b/DataGenerator/XLSXS/CharStatData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FD3B9D9-789D-4936-8E56-E7BC77BD9B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE72866-2391-4FB2-A5D2-77D053BBCAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>캐릭터 스탯 ID</t>
   </si>
@@ -84,80 +85,93 @@
     <t>행동속도</t>
   </si>
   <si>
+    <t>회피율</t>
+  </si>
+  <si>
+    <t>상태이상저항</t>
+  </si>
+  <si>
+    <t>사거리증가</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>armor</t>
+  </si>
+  <si>
+    <t>magicResist</t>
+  </si>
+  <si>
+    <t>meleeAttack</t>
+  </si>
+  <si>
+    <t>magicalAttack</t>
+  </si>
+  <si>
+    <t>critChance</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>actionPoint</t>
+  </si>
+  <si>
+    <t>dodge</t>
+  </si>
+  <si>
+    <t>resistance</t>
+  </si>
+  <si>
+    <t>rangeIncrease</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>행동력</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>이동력</t>
-  </si>
-  <si>
-    <t>회피율</t>
-  </si>
-  <si>
-    <t>상태이상저항</t>
-  </si>
-  <si>
-    <t>사거리증가</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>red</t>
-  </si>
-  <si>
-    <t>yellow</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>magicResist</t>
-  </si>
-  <si>
-    <t>meleeAttack</t>
-  </si>
-  <si>
-    <t>magicalAttack</t>
-  </si>
-  <si>
-    <t>critChance</t>
-  </si>
-  <si>
-    <t>speed</t>
-  </si>
-  <si>
-    <t>actionPoint</t>
-  </si>
-  <si>
-    <t>dodge</t>
-  </si>
-  <si>
-    <t>resistance</t>
-  </si>
-  <si>
-    <t>rangeIncrease</t>
-  </si>
-  <si>
-    <t>long</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePoint</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -197,6 +211,33 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -240,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,9 +310,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -490,23 +537,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q44"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.46484375" customWidth="1"/>
-    <col min="2" max="2" width="4.1328125" customWidth="1"/>
-    <col min="3" max="3" width="3.3984375" customWidth="1"/>
-    <col min="4" max="4" width="5.59765625" customWidth="1"/>
-    <col min="5" max="6" width="4.86328125" customWidth="1"/>
-    <col min="7" max="7" width="11.265625" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" customWidth="1"/>
-    <col min="9" max="9" width="10.1328125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" customWidth="1"/>
+    <col min="5" max="6" width="4.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,126 +595,135 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:18" ht="12.75">
+      <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:18" ht="12.75">
+      <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="O3" s="23" t="s">
+        <v>38</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>34</v>
+      </c>
+      <c r="R3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="12.75">
       <c r="A4" s="3">
         <v>8888</v>
       </c>
@@ -706,19 +764,22 @@
         <v>5</v>
       </c>
       <c r="N4" s="4">
-        <v>50</v>
-      </c>
-      <c r="O4" s="4">
+        <v>5</v>
+      </c>
+      <c r="O4" s="24">
         <v>50</v>
       </c>
       <c r="P4" s="4">
         <v>50</v>
       </c>
       <c r="Q4" s="4">
+        <v>50</v>
+      </c>
+      <c r="R4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18" ht="12.75">
       <c r="A5" s="3">
         <v>10101</v>
       </c>
@@ -759,25 +820,28 @@
         <v>1</v>
       </c>
       <c r="N5" s="4">
-        <v>10</v>
-      </c>
-      <c r="O5" s="4">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="O5" s="24">
+        <v>25</v>
       </c>
       <c r="P5" s="4">
         <v>10</v>
       </c>
       <c r="Q5" s="4">
+        <v>10</v>
+      </c>
+      <c r="R5" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7"/>
       <c r="D6" s="8"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="19"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -785,7 +849,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="7"/>
@@ -799,7 +863,7 @@
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:18">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="7"/>
@@ -813,7 +877,7 @@
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:18">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="7"/>
@@ -827,13 +891,13 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:18">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="19"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
@@ -841,13 +905,13 @@
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:18">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="7"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="18"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="19"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -855,13 +919,13 @@
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:18">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="18"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="19"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
@@ -869,7 +933,7 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:18">
       <c r="A13" s="5"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -883,7 +947,7 @@
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:18">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -897,7 +961,7 @@
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:18">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="7"/>
@@ -911,7 +975,7 @@
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:18">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="7"/>
@@ -1044,7 +1108,7 @@
       <c r="C29" s="7"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="19"/>
     </row>
     <row r="30" spans="1:12">
@@ -1053,7 +1117,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="19"/>
     </row>
     <row r="31" spans="1:12">

--- a/DataGenerator/XLSXS/CharStatData.xlsx
+++ b/DataGenerator/XLSXS/CharStatData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6148A-77CC-4EAB-9076-D245FD8D0216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAC6E3B-785A-486B-86C4-2EFFD20AB29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2453" windowWidth="18668" windowHeight="9982" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="600" windowWidth="17120" windowHeight="9540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트8" sheetId="1" r:id="rId1"/>
@@ -151,16 +151,19 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -197,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -214,11 +217,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -237,7 +255,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,19 +479,19 @@
   </sheetPr>
   <dimension ref="A1:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.265625" customWidth="1"/>
-    <col min="3" max="3" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -516,7 +535,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="25" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
@@ -560,7 +579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
@@ -604,112 +623,183 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
-        <v>20010001</v>
-      </c>
-      <c r="B4" s="12">
+    <row r="4" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="13">
+        <v>20002001</v>
+      </c>
+      <c r="B4" s="13">
+        <v>5</v>
+      </c>
+      <c r="C4" s="13">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13">
+        <v>2</v>
+      </c>
+      <c r="G4" s="13">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13">
+        <v>95</v>
+      </c>
+      <c r="J4" s="13">
+        <v>30</v>
+      </c>
+      <c r="K4" s="13">
+        <v>20</v>
+      </c>
+      <c r="L4" s="13">
+        <v>4</v>
+      </c>
+      <c r="M4" s="13">
+        <v>18</v>
+      </c>
+      <c r="N4" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="13">
+        <v>30002001</v>
+      </c>
+      <c r="B5" s="13">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13">
+        <v>20</v>
+      </c>
+      <c r="D5" s="13">
+        <v>20</v>
+      </c>
+      <c r="E5" s="13">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13">
+        <v>3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>10</v>
+      </c>
+      <c r="H5" s="13">
+        <v>20</v>
+      </c>
+      <c r="I5" s="13">
+        <v>90</v>
+      </c>
+      <c r="J5" s="13">
+        <v>20</v>
+      </c>
+      <c r="K5" s="13">
+        <v>20</v>
+      </c>
+      <c r="L5" s="13">
+        <v>8</v>
+      </c>
+      <c r="M5" s="13">
+        <v>30</v>
+      </c>
+      <c r="N5" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="13">
+        <v>30002002</v>
+      </c>
+      <c r="B6" s="13">
+        <v>8</v>
+      </c>
+      <c r="C6" s="13">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13">
+        <v>20</v>
+      </c>
+      <c r="E6" s="13">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="C4" s="12">
+      <c r="H6" s="13">
+        <v>12</v>
+      </c>
+      <c r="I6" s="13">
+        <v>88</v>
+      </c>
+      <c r="J6" s="13">
         <v>20</v>
       </c>
-      <c r="D4" s="12">
+      <c r="K6" s="13">
+        <v>0</v>
+      </c>
+      <c r="L6" s="13">
+        <v>2</v>
+      </c>
+      <c r="M6" s="13">
+        <v>15</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13">
+        <v>30002003</v>
+      </c>
+      <c r="B7" s="13">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="12">
-        <v>10</v>
-      </c>
-      <c r="F4" s="12">
-        <v>3</v>
-      </c>
-      <c r="G4" s="12">
-        <v>10</v>
-      </c>
-      <c r="H4" s="12">
-        <v>20</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="E7" s="13">
+        <v>10</v>
+      </c>
+      <c r="F7" s="13">
+        <v>5</v>
+      </c>
+      <c r="G7" s="13">
+        <v>10</v>
+      </c>
+      <c r="H7" s="13">
+        <v>16</v>
+      </c>
+      <c r="I7" s="13">
         <v>90</v>
       </c>
-      <c r="J4" s="12">
-        <v>20</v>
-      </c>
-      <c r="K4" s="12">
-        <v>20</v>
-      </c>
-      <c r="L4" s="12">
-        <v>8</v>
-      </c>
-      <c r="M4" s="12">
-        <v>30</v>
-      </c>
-      <c r="N4" s="12">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
-        <v>30020001</v>
-      </c>
-      <c r="B5" s="12">
-        <v>10</v>
-      </c>
-      <c r="C5" s="12">
-        <v>10</v>
-      </c>
-      <c r="D5" s="12">
-        <v>20</v>
-      </c>
-      <c r="E5" s="12">
-        <v>8</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="J7" s="13">
+        <v>25</v>
+      </c>
+      <c r="K7" s="13">
         <v>0</v>
       </c>
-      <c r="H5" s="12">
-        <v>12</v>
-      </c>
-      <c r="I5" s="12">
-        <v>88</v>
-      </c>
-      <c r="J5" s="12">
-        <v>20</v>
-      </c>
-      <c r="K5" s="12">
+      <c r="L7" s="13">
+        <v>6</v>
+      </c>
+      <c r="M7" s="13">
+        <v>15</v>
+      </c>
+      <c r="N7" s="13">
         <v>0</v>
       </c>
-      <c r="L5" s="12">
-        <v>2</v>
-      </c>
-      <c r="M5" s="12">
-        <v>15</v>
-      </c>
-      <c r="N5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -718,8 +808,8 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
       <c r="B9" s="1"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -727,7 +817,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -735,7 +825,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -743,7 +833,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -751,7 +841,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4"/>
@@ -760,7 +850,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4"/>
@@ -769,7 +859,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4"/>
@@ -778,7 +868,7 @@
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
@@ -787,7 +877,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="5"/>
@@ -796,69 +886,69 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="8"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="8"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="8"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="8"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="8"/>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="8"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="8"/>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="8"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="8"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="8"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
       <c r="B34" s="2"/>
       <c r="C34" s="10"/>
@@ -868,7 +958,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
@@ -878,7 +968,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A36" s="9"/>
       <c r="B36" s="2"/>
       <c r="C36" s="10"/>
@@ -888,7 +978,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A37" s="9"/>
       <c r="B37" s="2"/>
       <c r="C37" s="10"/>
@@ -898,7 +988,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A38" s="9"/>
       <c r="B38" s="2"/>
       <c r="C38" s="10"/>
@@ -908,7 +998,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="2"/>
       <c r="C39" s="10"/>
@@ -918,7 +1008,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A40" s="9"/>
       <c r="B40" s="2"/>
       <c r="C40" s="10"/>
@@ -928,7 +1018,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
     </row>
-    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A41" s="9"/>
       <c r="B41" s="2"/>
       <c r="C41" s="10"/>
@@ -938,7 +1028,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A42" s="9"/>
       <c r="B42" s="2"/>
       <c r="C42" s="10"/>
@@ -948,7 +1038,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
       <c r="A43" s="9"/>
       <c r="B43" s="2"/>
       <c r="C43" s="10"/>
@@ -958,7 +1048,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
